--- a/Batch/Reactj-Weekday-8AM-9AM/candidatesAssignmentList.xlsx
+++ b/Batch/Reactj-Weekday-8AM-9AM/candidatesAssignmentList.xlsx
@@ -16,12 +16,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Assignment -1 - General - Setup</t>
+    <t>Kannan</t>
+  </si>
+  <si>
+    <t>Assignment -1 - HTML</t>
+  </si>
+  <si>
+    <t>Maaleni</t>
+  </si>
+  <si>
+    <t>Surendar</t>
+  </si>
+  <si>
+    <t>Vimalraj</t>
+  </si>
+  <si>
+    <t>everything is completed</t>
+  </si>
+  <si>
+    <t>Sameer</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>Johnlee</t>
+  </si>
+  <si>
+    <t>Daffiny</t>
+  </si>
+  <si>
+    <t>sobhiya</t>
+  </si>
+  <si>
+    <t>Rajan</t>
+  </si>
+  <si>
+    <t>karthick</t>
+  </si>
+  <si>
+    <t>Lavanya</t>
+  </si>
+  <si>
+    <t>Going to send the assignment</t>
   </si>
 </sst>
 </file>
@@ -356,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="83.140625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
   </cols>
@@ -374,15 +422,120 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="69.75" customHeight="1"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="69.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
